--- a/medicine/Enfance/Robert_Arthur,_Jr/Robert_Arthur,_Jr..xlsx
+++ b/medicine/Enfance/Robert_Arthur,_Jr/Robert_Arthur,_Jr..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Arthur, Jr., né le 10 novembre 1909 à Corregidor, Philippines, et mort le 2 mai 1969 à Philadelphie, Pennsylvanie, est un écrivain américain d'origine philippine.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est notamment le créateur de la série pour la jeunesse Les Trois Jeunes Détectives, parue dans la collection Bibliothèque verte aux éditions Hachette sous le nom d'auteur Alfred Hitchcock.
 </t>
@@ -542,9 +556,11 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Note : la première date est celle de la première édition française[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Note : la première date est celle de la première édition française.
 Série Alfred Hitchcock et les trois jeunes détectives.
 1966 : Au rendez-vous des revenants
 1967 : Le Perroquet qui bégayait
